--- a/실무_엑셀_예제_파일/Chapter07/07-020.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-020.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBF24CD-E312-4D21-9E21-548117DBFFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E2B78-1263-45F1-B819-50D1D41CA573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="276" windowWidth="19716" windowHeight="13392" xr2:uid="{651CAEE5-9D63-4AE3-989C-95D9D5191D7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{651CAEE5-9D63-4AE3-989C-95D9D5191D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEXMATCH기초" sheetId="2" r:id="rId1"/>
     <sheet name="준s헤어" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -162,51 +153,51 @@
   </si>
   <si>
     <t>스타벅스 오빠두 플레이스</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>메뉴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TALL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>GRANDE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>VENTI</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>카페 아메리카노</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>카페 라떼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>카푸치노</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>오늘의커피</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>카페모카</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>화이트 초콜릿 모카</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>스타벅스 돌체 라떼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -308,10 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,14 +337,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -609,15 +589,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,9 +613,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,72 +625,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1784,22 +1757,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2BC98-9138-40F5-BC57-64F1C9769455}">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="3.69921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" customWidth="1"/>
-    <col min="9" max="10" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" customWidth="1"/>
+    <col min="4" max="5" width="12.08203125" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.9140625" customWidth="1"/>
+    <col min="9" max="10" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="27" t="s">
         <v>53</v>
       </c>
@@ -1813,271 +1786,271 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="2:10" ht="4.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="11">
+    <row r="3" spans="2:10" ht="4.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="G5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>4100</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>4600</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>5100</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>4100</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>4600</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>5100</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>4600</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>5100</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>5600</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>4600</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <v>5100</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <v>5600</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>4600</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>5100</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>5600</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>4600</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <v>5100</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <v>5600</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>3800</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>4300</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>4800</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>3800</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>4300</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <v>4800</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>5100</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>5600</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>6100</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>5100</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <v>5600</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <v>6100</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>5600</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>6100</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>6600</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>5600</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <v>6100</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <v>6600</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>5600</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>6100</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>6600</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>5600</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>6100</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <v>6600</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>4100</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <v>4600</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>5100</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>4100</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>4600</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <v>5100</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="28" t="s">
         <v>48</v>
       </c>
@@ -2091,17 +2064,17 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G18" s="23" t="s">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G19" s="23" t="s">
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2122,36 +2095,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B279841D-1FD4-4752-A8DC-AFF10A749EF5}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="3.296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="9" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:11" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="24.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2167,14 +2142,14 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>44201</v>
       </c>
@@ -2187,17 +2162,17 @@
       <c r="E5" s="4">
         <v>120000</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>44207</v>
       </c>
@@ -2210,23 +2185,23 @@
       <c r="E6" s="4">
         <v>35000</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>44216</v>
       </c>
@@ -2239,15 +2214,27 @@
       <c r="E7" s="4">
         <v>185000</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="29">
+        <f t="array" ref="H7">INDEX(B5:B18, MATCH($H$5, $F$5:$F$18, 0))</f>
+        <v>44238</v>
+      </c>
+      <c r="I7" s="29" t="str">
+        <f t="array" ref="I7">INDEX(C5:C18, MATCH($H$5, $F$5:$F$18, 0))</f>
+        <v>이서우</v>
+      </c>
+      <c r="J7" s="29" t="str">
+        <f t="array" ref="J7">INDEX(D5:D18, MATCH($H$5, $F$5:$F$18, 0))</f>
+        <v>앞머리커트</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="array" ref="K7">INDEX(E5:E18, MATCH($H$5, $F$5:$F$18, 0))</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>44225</v>
       </c>
@@ -2260,11 +2247,11 @@
       <c r="E8" s="4">
         <v>55000</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>44238</v>
       </c>
@@ -2277,11 +2264,11 @@
       <c r="E9" s="4">
         <v>15000</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>44247</v>
       </c>
@@ -2294,11 +2281,11 @@
       <c r="E10" s="4">
         <v>85000</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>44254</v>
       </c>
@@ -2311,11 +2298,11 @@
       <c r="E11" s="4">
         <v>35000</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>44267</v>
       </c>
@@ -2328,11 +2315,11 @@
       <c r="E12" s="4">
         <v>35000</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>44277</v>
       </c>
@@ -2345,11 +2332,11 @@
       <c r="E13" s="4">
         <v>150000</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>44286</v>
       </c>
@@ -2362,11 +2349,11 @@
       <c r="E14" s="4">
         <v>55000</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>44291</v>
       </c>
@@ -2379,11 +2366,11 @@
       <c r="E15" s="4">
         <v>185000</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>44300</v>
       </c>
@@ -2396,11 +2383,11 @@
       <c r="E16" s="4">
         <v>35000</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5">
         <v>44306</v>
       </c>
@@ -2413,11 +2400,11 @@
       <c r="E17" s="4">
         <v>15000</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5">
         <v>44312</v>
       </c>
@@ -2430,7 +2417,7 @@
       <c r="E18" s="4">
         <v>35000</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
